--- a/data/trans_orig/P14A25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0073DFA-3003-4306-B544-4D6EF0DDDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{893B2B96-D024-4DFE-A43F-D892860800E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82008EC9-7CC3-4085-9F1F-0F5165D88645}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC6BDD24-3BC4-4B7D-AC06-E1F95A9CC6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>61,26%</t>
   </si>
   <si>
-    <t>19,77%</t>
+    <t>9,58%</t>
   </si>
   <si>
     <t>77,43%</t>
@@ -129,16 +129,16 @@
     <t>68,84%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>80,23%</t>
+    <t>90,42%</t>
   </si>
   <si>
     <t>22,57%</t>
@@ -150,10 +150,10 @@
     <t>31,16%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -165,7 +165,7 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>36,31%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>43,11%</t>
@@ -174,7 +174,7 @@
     <t>23,83%</t>
   </si>
   <si>
-    <t>63,69%</t>
+    <t>62,41%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,25 +195,25 @@
     <t>78,8%</t>
   </si>
   <si>
-    <t>20,63%</t>
+    <t>24,18%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>57,99%</t>
+    <t>53,47%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>79,37%</t>
+    <t>75,82%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>42,01%</t>
+    <t>46,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -234,49 +234,49 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -288,25 +288,25 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>30,52%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>61,86%</t>
+    <t>60,1%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>69,48%</t>
+    <t>78,39%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>38,14%</t>
+    <t>39,9%</t>
   </si>
   <si>
     <t>54,27%</t>
@@ -324,25 +324,25 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>20,41%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>44,17%</t>
+    <t>49,53%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>79,59%</t>
+    <t>81,17%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>55,83%</t>
+    <t>50,47%</t>
   </si>
   <si>
     <t>50,6%</t>
@@ -351,7 +351,7 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>32,05%</t>
+    <t>31,93%</t>
   </si>
   <si>
     <t>49,4%</t>
@@ -360,109 +360,109 @@
     <t>26,11%</t>
   </si>
   <si>
-    <t>67,95%</t>
+    <t>68,07%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>25,39%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>58,21%</t>
+    <t>59,91%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>74,61%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>41,79%</t>
+    <t>40,09%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>30,96%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>62,3%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>69,04%</t>
+    <t>69,08%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>37,7%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A41D1E-C07D-43F3-998E-BE8E43452CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585F9F5-D592-4841-BE39-7234343CD8A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2381,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4342AAC1-DB15-44D1-BAFD-6DD65DED3B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56445DD8-7F0C-4A48-A6FD-D4F3D4C81BD1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{893B2B96-D024-4DFE-A43F-D892860800E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C466BE3E-03CB-4775-8E41-628A7DA0D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC6BDD24-3BC4-4B7D-AC06-E1F95A9CC6F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2574A35-C6D7-445E-853E-588AEB8C98FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,7 +117,7 @@
     <t>61,26%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>77,43%</t>
@@ -129,16 +129,16 @@
     <t>68,84%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>22,57%</t>
@@ -150,10 +150,10 @@
     <t>31,16%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -165,7 +165,7 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>37,59%</t>
+    <t>35,94%</t>
   </si>
   <si>
     <t>43,11%</t>
@@ -174,7 +174,7 @@
     <t>23,83%</t>
   </si>
   <si>
-    <t>62,41%</t>
+    <t>64,06%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,25 +195,25 @@
     <t>78,8%</t>
   </si>
   <si>
-    <t>24,18%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>53,47%</t>
+    <t>59,73%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>75,82%</t>
+    <t>79,37%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>46,53%</t>
+    <t>40,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -234,79 +234,79 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otros problemas mentales en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población que recibe medicación o terapia por otros problemas mentales en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>35,43%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>60,1%</t>
+    <t>60,44%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>78,39%</t>
+    <t>64,57%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>39,56%</t>
   </si>
   <si>
     <t>54,27%</t>
@@ -330,7 +330,7 @@
     <t>87,25%</t>
   </si>
   <si>
-    <t>49,53%</t>
+    <t>48,38%</t>
   </si>
   <si>
     <t>20,34%</t>
@@ -342,7 +342,7 @@
     <t>12,75%</t>
   </si>
   <si>
-    <t>50,47%</t>
+    <t>51,62%</t>
   </si>
   <si>
     <t>50,6%</t>
@@ -351,7 +351,7 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>31,93%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>49,4%</t>
@@ -360,109 +360,109 @@
     <t>26,11%</t>
   </si>
   <si>
-    <t>68,07%</t>
+    <t>70,2%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>29,71%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>59,91%</t>
+    <t>60,28%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>70,29%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>40,09%</t>
+    <t>39,72%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>30,92%</t>
+    <t>30,76%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>62,3%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>69,24%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>37,7%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585F9F5-D592-4841-BE39-7234343CD8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCEC49D-CB86-4554-BE07-9CDE73D224AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2381,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56445DD8-7F0C-4A48-A6FD-D4F3D4C81BD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EAFAA8-08CF-41D4-85C7-B5A0D9B375D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
